--- a/docs/CRA.xlsx
+++ b/docs/CRA.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15240"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="130404"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>taches</t>
   </si>
@@ -39,12 +44,20 @@
   <si>
     <t>TOTAL :</t>
   </si>
+  <si>
+    <t>Rédaction doc1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Débuggage eclipse android mac</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +72,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,7 +126,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -404,22 +421,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.7109375" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="10.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.75" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -430,7 +448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="30">
       <c r="A2" s="6">
         <v>41061</v>
       </c>
@@ -441,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="6">
         <v>41062</v>
       </c>
@@ -452,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -460,41 +478,74 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1">
         <f>SUM(B2:B15)</f>
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/CRA.xlsx
+++ b/docs/CRA.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>taches</t>
   </si>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>Débuggage eclipse android mac</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionBar all version !</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +430,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
@@ -494,18 +498,30 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6">
+        <v>41064</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1">
         <f>SUM(B2:B15)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/docs/CRA.xlsx
+++ b/docs/CRA.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>taches</t>
   </si>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>ActionBar all version !</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No pull on refresh but a refresh button with actionView !</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +434,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
@@ -509,19 +513,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6">
+        <v>41065</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1">
         <f>SUM(B2:B15)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
